--- a/Data/Data_List_A3.xlsx
+++ b/Data/Data_List_A3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KB\Documents\wdkdy\movie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KB\Documents\wdkdy\movie\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -932,9 +932,6 @@
     <t>코미디</t>
   </si>
   <si>
-    <t>공포</t>
-  </si>
-  <si>
     <t>판타지</t>
   </si>
   <si>
@@ -949,10 +946,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>판티지</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>액션</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -967,6 +960,14 @@
   <si>
     <t>코미디</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>스릴러</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>스릴러</t>
@@ -1841,6 +1842,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1872,9 +1876,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2200,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2220,112 +2221,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -4414,7 +4415,7 @@
         <v>100</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4552,7 +4553,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4792,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4966,7 +4967,7 @@
         <v>118</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5170,7 +5171,7 @@
         <v>122</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5378,7 +5379,7 @@
         <v>122</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5786,7 +5787,7 @@
         <v>47</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5994,7 +5995,7 @@
         <v>23</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6028,7 +6029,7 @@
         <v>30</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6575,8 +6576,8 @@
       <c r="K130" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L130" s="22" t="s">
-        <v>289</v>
+      <c r="L130" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6711,8 +6712,8 @@
       <c r="K134" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L134" s="22" t="s">
-        <v>290</v>
+      <c r="L134" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6746,7 +6747,7 @@
         <v>68</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7260,7 +7261,7 @@
         <v>58</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7635,8 +7636,8 @@
       <c r="K161" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L161" s="22" t="s">
-        <v>288</v>
+      <c r="L161" s="11" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
